--- a/src/10t/assets/LEG_1.xlsx
+++ b/src/10t/assets/LEG_1.xlsx
@@ -16,16 +16,16 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
-    <t>二级BOM 前支腿 2T，4.5˂S≤11米，4.5˂H0≤7m（图号：Z60234）</t>
-  </si>
-  <si>
-    <t>7021-00018</t>
+    <t>二级BOM 前支腿 5T，4.5˂S≤11米，6˂H0≤7.5m（图号：Z60332）</t>
+  </si>
+  <si>
+    <t>7022-00018</t>
   </si>
   <si>
     <t>前支腿</t>
   </si>
   <si>
-    <t>7021-00100</t>
+    <t>7022-00100</t>
   </si>
   <si>
     <t>下法兰</t>
@@ -46,7 +46,7 @@
     <t>00</t>
   </si>
   <si>
-    <t>7021-00184</t>
+    <t>7022-00184</t>
   </si>
   <si>
     <t>左腹板</t>
@@ -61,7 +61,7 @@
     <t>Q235B</t>
   </si>
   <si>
-    <t>7021-00185</t>
+    <t>7022-00185</t>
   </si>
   <si>
     <t>右腹板</t>
@@ -70,16 +70,16 @@
     <t>板 5×208×L2</t>
   </si>
   <si>
-    <t>7021-00186</t>
+    <t>7022-00186</t>
   </si>
   <si>
     <t>盖板</t>
   </si>
   <si>
-    <t>板 5×(上570，下270）×F</t>
-  </si>
-  <si>
-    <t>7021-00187</t>
+    <t>板 5×(上670，下270）×F</t>
+  </si>
+  <si>
+    <t>7022-00187</t>
   </si>
   <si>
     <t>加强筋</t>
@@ -88,7 +88,7 @@
     <t>板 5×50×E</t>
   </si>
   <si>
-    <t>7021-00188</t>
+    <t>7022-00188</t>
   </si>
   <si>
     <t>隔板（放样）</t>
@@ -97,16 +97,16 @@
     <t>板 5×210×L3(总长)</t>
   </si>
   <si>
-    <t>7021-00189</t>
+    <t>7022-00189</t>
   </si>
   <si>
     <t>上法兰</t>
   </si>
   <si>
-    <t>板 12×290×630</t>
-  </si>
-  <si>
-    <t>7021-00107</t>
+    <t>板 12×290×730</t>
+  </si>
+  <si>
+    <t>7022-00107</t>
   </si>
   <si>
     <t>三角筋</t>
@@ -115,7 +115,7 @@
     <t>板 5×50×100</t>
   </si>
   <si>
-    <t>7021-00108</t>
+    <t>7022-00108</t>
   </si>
   <si>
     <t>板 5×62×100</t>
@@ -154,8 +154,115 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -170,92 +277,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,36 +291,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -325,187 +325,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,32 +534,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -579,31 +558,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -631,6 +596,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -639,10 +639,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -651,133 +651,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1136,7 +1136,7 @@
   <dimension ref="A1:U10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -1255,11 +1255,11 @@
         <v>14</v>
       </c>
       <c r="L3" s="11">
-        <v>34.2</v>
+        <v>45.9</v>
       </c>
       <c r="M3" s="11">
         <f t="shared" si="0"/>
-        <v>34.2</v>
+        <v>45.9</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="8" t="s">
@@ -1307,11 +1307,11 @@
         <v>14</v>
       </c>
       <c r="L4" s="11">
-        <v>34.2</v>
+        <v>46</v>
       </c>
       <c r="M4" s="11">
         <f t="shared" si="0"/>
-        <v>34.2</v>
+        <v>46</v>
       </c>
       <c r="N4" s="8"/>
       <c r="O4" s="8" t="s">
@@ -1359,11 +1359,11 @@
         <v>14</v>
       </c>
       <c r="L5" s="11">
-        <v>53.15</v>
+        <v>103.25</v>
       </c>
       <c r="M5" s="11">
         <f t="shared" si="0"/>
-        <v>106.3</v>
+        <v>206.5</v>
       </c>
       <c r="N5" s="8"/>
       <c r="O5" s="8" t="s">
@@ -1411,11 +1411,11 @@
         <v>14</v>
       </c>
       <c r="L6" s="11">
-        <v>17.9</v>
+        <v>22.8</v>
       </c>
       <c r="M6" s="11">
         <f t="shared" si="0"/>
-        <v>250.6</v>
+        <v>319.2</v>
       </c>
       <c r="N6" s="8"/>
       <c r="O6" s="8" t="s">
@@ -1463,11 +1463,11 @@
         <v>14</v>
       </c>
       <c r="L7" s="11">
-        <v>9.1</v>
+        <v>20.8</v>
       </c>
       <c r="M7" s="11">
         <f t="shared" si="0"/>
-        <v>9.1</v>
+        <v>20.8</v>
       </c>
       <c r="N7" s="8"/>
       <c r="O7" s="8" t="s">
@@ -1511,11 +1511,11 @@
       </c>
       <c r="K8" s="8"/>
       <c r="L8" s="11">
-        <v>11</v>
+        <v>16.48</v>
       </c>
       <c r="M8" s="11">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>16.48</v>
       </c>
       <c r="N8" s="8" t="s">
         <v>7</v>
@@ -1554,7 +1554,7 @@
       </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J9" s="10" t="s">
         <v>6</v>
@@ -1565,7 +1565,7 @@
       </c>
       <c r="M9" s="11">
         <f t="shared" si="0"/>
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="N9" s="8" t="s">
         <v>7</v>
@@ -1611,11 +1611,11 @@
       </c>
       <c r="K10" s="8"/>
       <c r="L10" s="11">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="M10" s="11">
         <f t="shared" si="0"/>
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
       <c r="N10" s="8" t="s">
         <v>7</v>

--- a/src/10t/assets/LEG_1.xlsx
+++ b/src/10t/assets/LEG_1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="9947"/>
+    <workbookView yWindow="4632" windowWidth="7367" windowHeight="5315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -158,9 +158,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,17 +179,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,52 +278,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -247,6 +286,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -254,52 +300,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -328,13 +328,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,163 +508,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,11 +539,39 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,59 +591,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -634,6 +614,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -642,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -654,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
